--- a/table/pred.xlsx
+++ b/table/pred.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>LR</t>
   </si>
@@ -73,31 +73,46 @@
     <t>0.6220/0.6395</t>
   </si>
   <si>
+    <t>0.6270/0.6302</t>
+  </si>
+  <si>
     <t>0.6163/0.6201</t>
   </si>
   <si>
-    <t>0.6166/0.6205</t>
-  </si>
-  <si>
-    <t>0.6408/0.6426</t>
-  </si>
-  <si>
-    <t>0.6445/0.6476</t>
-  </si>
-  <si>
-    <t>0.6373/0.6397</t>
-  </si>
-  <si>
-    <t>0.6346/0.6349</t>
-  </si>
-  <si>
-    <t>0.6375/0.6385</t>
-  </si>
-  <si>
-    <t>0.6377/0.6391</t>
-  </si>
-  <si>
-    <t>0.6415/0.6353</t>
+    <t>0.6268/0.6314</t>
+  </si>
+  <si>
+    <t>0.6277/0.6304</t>
+  </si>
+  <si>
+    <t>0.6271/0.6298</t>
+  </si>
+  <si>
+    <t>0.6267/0.6310</t>
+  </si>
+  <si>
+    <t>0.6286/0.6263</t>
+  </si>
+  <si>
+    <t>0.6731/0.6632</t>
+  </si>
+  <si>
+    <t>0.6758/0.6573</t>
+  </si>
+  <si>
+    <t>0.6636/0.6498</t>
+  </si>
+  <si>
+    <t>0.6678/0.6488</t>
+  </si>
+  <si>
+    <t>0.6663/0.6496</t>
+  </si>
+  <si>
+    <t>0.6678/0.6452</t>
+  </si>
+  <si>
+    <t>0.6652/0.6466</t>
   </si>
   <si>
     <t>0.6592/0.6503</t>
@@ -121,25 +136,25 @@
     <t>0.6485/0.6326</t>
   </si>
   <si>
-    <t>0.6567/0.6494</t>
-  </si>
-  <si>
-    <t>0.6935/0.6567</t>
-  </si>
-  <si>
-    <t>0.6379/0.6436</t>
-  </si>
-  <si>
-    <t>0.6395/0.6318</t>
-  </si>
-  <si>
-    <t>0.6406/0.6478</t>
-  </si>
-  <si>
-    <t>0.6357/0.6419</t>
-  </si>
-  <si>
-    <t>0.6387/0.6428</t>
+    <t>0.6582/0.6446</t>
+  </si>
+  <si>
+    <t>0.6964/0.6517</t>
+  </si>
+  <si>
+    <t>0.6401/0.6476</t>
+  </si>
+  <si>
+    <t>0.6401/0.6377</t>
+  </si>
+  <si>
+    <t>0.6374/0.6432</t>
+  </si>
+  <si>
+    <t>0.6392/0.6409</t>
+  </si>
+  <si>
+    <t>0.6414/0.6336</t>
   </si>
 </sst>
 </file>
@@ -531,13 +546,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -548,16 +563,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -568,16 +583,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -588,16 +603,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -608,16 +623,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -628,16 +643,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -648,16 +663,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
